--- a/Testdata/TC_Unit Manipulation_13.xlsx
+++ b/Testdata/TC_Unit Manipulation_13.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mFMAAB+LCAAAAAAAAAPtXFtv48YV/iuEH4oEqDykLrbsnWUgS/JGqC6GJWfXeVlQ5MhmlyJVXmzrLX0oAqQXoGgSIL0iD0WDAE33IS3SbNH+lyDeTZ/6F3pmhpchRa1F7xbNtjQMmHMucz1zzncODeI3ruaWdEFcz3Tsu1vKtrwlEVt3DNM+u7sV+LOKsrP1hoq7VzqxjjRXmxMfhCXQsr39K8+8u3Xu+4t9hC4vL7cva9uOe4aqsqygB4P+WD8nc61i2p6v2TrZirWMm7W2VNw25gPia4bma1zz7lZv3NtuE1PvAG2g2doZcbcPAs+0ied1bd/0TeJRTZdoPml3Bm/xhanV7Z1tBaMVeiJ5EJiWweVSkpweysGwZGLOiVqVq3JFqVbk2kSR9+vKvryzXd+pvR0pxoK4r3n+mLgXps4IY1+bL5i6UpVrilxX5B2McoWgr2QDVDyyjGNyYXrEaBPL8grtCAoPsKX7sOpimyljJOiGHd1+CvdcbXE+MX2LFFU/dFyiw0bdauwhuRy54f5NFn3gTs5N1192tGXhvk484o4WdDeKqaq449h+yyKuf7KAQyUGnDkwVN8NCEZrmIlSx/R0eDbtgBjqTLM8USnFxPcd95G30HQyhAuLaB+XtuVoBliWb3q+qSeDrjDwkessoEcY/MCxjEPoNRTOYcQ992zYYjrsgeM8SmaXx8TMBpg1wJnONT8SX6Hj8blzObKt5TiYerprTonROYikc3mY3rxQux14vjOHWSQkzGkCZQk/cNOyZNwhujnXrCMLNtFTa9BLioBbge/MTL/tWMHc9qI5Zaj4PqxoQq7iFcZtPILDtemmO3bPjuT5Nuey0grHzmU85iqDbYJAbnl6dNyrjKxwB2jR8a1y2InQVR6aFgQC8SwEatoqxueE+LkmwTmY+rxDGlrUgyUdE6OEgsEywbqBqtIAUWG/E1neZ78wcszGXdsI5RTmnGuiXMTEw2A+msINvmBrUhXgZUgYVmEdWJr9CKj3Tf982Ipmn8PBfM1r5Vd5GO7qwtKWjBzvi0jDPVu3AoNwF9CzZ8wo6dz4Ma5l4xVSH261ijV7OVkuwOV65r4PD3e3IAjve74LYX5L1Z3A9t0l9RUYhaI36XjB1GYDaNbGOjOX/CAAdLE8DGy97Ribj2bw3TmxTX/zGTqByx3g5ips96gvDLwOoV6FufmN9fUia/LcQuJzm8wd29Q3323YZDp74xYL8aJbtbEG4fdrY3kLIjkPdPSub6zmAjSE0FZomJbnObrJjDW8Hoagj9ZcmQ6ZaYEFsMyHoHoWe9ssGbe8R1kZkYRPXCvyeSoFvR6gXt2Yb+sAFyiy29adOSUgAJv3xxiJ8hTz6KRrn/U1+ywAVBH7lSw99rg0Ik5czfbocmIQkXG++UI48lMc3KjceY0CZgjceTnAxSgjhydkvnBczRrAxpiHodmFCAnAx0Dzz8MWRDOL6NEmo0Q11krPLJr4TWIsLPFl0AsfuskMkQnRtXB8ncgkNExXOYBrabU1y5y63KtGwTuPBweWwMHI/9LFFYSG0RlAjgXx9ntkSYF30gjpzGSViMENmDpSdXxcb1YbcqMBWIa2MVvxPefClwD1EkCFUkWaaFfSHalnG+aFaQSaBY9gfLAyvj1hCCqkKergw8i/sym0YJ5pSloAkMWZCeFjVTDmJArqKdFcaykI8iX2HR3knr7/j+svf/30/b9c/+j3lWef/Oz6vY//9bdffv3Fp19/+SWn8jVyaTzRphZhM5ocNJtyrQ4GFpMw3VXEULAR6D6jnZ4y8Bu3cZissUa722vf6x8wRxITI3UeSxDNA5dOkDTHfBVsIHaWKDIBLqJOIscUtlNcITapNC+7IGlpkb9Oke/Fsyd/ePbkj2u1ww1LQJayt9dkie/NGExZkYsxWD/l/KlwvSI3KtWqIJyRwcfc88f71DNUyJ/3ZGVXVmInbsRWnCeUZYU9TbQzlNHjpDbHRbEJiO2IySx/Qjw/ZvO7IDRCG/3zj7/50wcpqXB3Q0q6F5gcwy90MBQ1WNfD44k0Hp0ct7vSpDumdpLwBDne+XOEw9HjC5UyKtuGW/5dCaI6RDFpC5KfLcmZSUTTz6UlXEXhIqaMLY/KB7pll9lZ3nOdYMFPRFBIqDmSsTvJ1chxNozH9nPF6ySsHHE+1+u/fp6nEC6kkyBZ9XhwIM3t2C4ZDac4nCTww1v70d+//uJd6twe//z6ix+megjHiSsAYOdwm8RmbPbg8sJAk6Hg+2O2mY/kh0JgCYk0gzpyTNv3VKXOkqewhUFVob2xv7g3h1jHOmb7BfQMBb+ped0rP7zY6hCjNAHmudAgzDpJmhkTuA9P9vWfv/nt0199/vTDx9+8++n1e59c/+TDZ09+981nH/Nb9/SDx09/+lno5bOBgM2FJq8c/UmsFKJL9DZKNGhLX73zC8l2fAmwhhQwj/TVOx8JndGJMlSS9AxYLp5IegoroqIy1ZOEqcRzSOnFKjzyt2kIq8USYRBzFqaeDPJ2hXZF7x1jvNabVAKPSA7AqNdhJWnhRHlTvVCFh9SjXbmqVEMunw1dwlTzhK2/ZzlTgBERg9UaMiIprecrJLJsvHv90UGrn4jwSYxcg7jUDPkD7nkRmozMS6AAF1CeHli0JLQitsrC0ZPgulBYW5m1DOryVDmvfpGSwO3AdTkKssOa/DhYAPKNKnDr+awqKYDdIQemIvxN2r1Omg9tgQvBL82mBMZn7ihkcdfU82gZh2PXId2apAm8VCUTtiMsu3N0BUiSuIj6mq7rOm6uw0k4kdgAYDN4EZTseCyD6JAcYhvJWUWEyMmVULuE2iXULqF2CbX/36D2ubEOalPOGqido1gcYSvrEbbycFeRZ/XpDqmQem1aqWt6o9LUGruVxp5Gmo16VW80yH8BfEeHlfOSYe0cNo9Ktzn355liTtb0sj3pC8fs5zvTG5zczTkbes6JlZlUmUm97ExKiTOpCIl7vNafeQMAzshQT4a9ycNBa9g7Oum3Jr0RzRUoghACGhc56U96R/1e9/i1NwPbcIlxR+LJji9pliXN6SuGhWVCIvE6fRkjxMPkv5P4NOJ2iNvhvp8RfxB3EMH3tzQrIOqbHYz4E0Olans0HE9aQwjj4WuiTJd5I2iLhcUixLpBJscn3WLDIHFVHL5mkxCBGp9E4hlbrumfQwemPloQ/s7CAxe6Iher0mQvUZLytFg+mE2nQ3fkcAVy2/QK8WQDpfwtyoSWbDvyfCIdCVkLEhIRlJd2oFSegV44p0Brc4H1nGimSWDKLRjkxK1cuXUZQK7wzRlAFrYzyuagHqUCHFoF7QkJrcXjaAV0o3wYvIa8ohKbfy4xz6picJJLjAYQwCLi2AStQkv0coq0SMRj8gtBws1RAhIIaDVqp0koFWZRNqSKBCTEP5QT7TI0lA5XKPRK6FUr7oVjf5ure+g29Tz08sp2QmDpmLPZKUDIB8n/TkUEPuOkF9rgMXUFlCABtQi2Ef6D1cs1lttgm7xuynpy0Xry5ul1WWouS81lqbksNZel5rLU/AqXmqvrS83Vh7OdZkObzWYVsteQK/XGnl6ZGrVqZTrbqcPPTJanSllqLkvNZam5LDV/m0rN1bLUXJaay1JzWWouS81lqbksNZel5ler1LwOqbTa7XH3eBWeAP1kQMFL97X1yAOVQboM0mWQLoN0GaTLIF0G6f/x98HSd878O1IaGJRviF/GG+LNq+L/kTfE4QP/5kRk2h1iAcYr+l2qSHvgXNxaF8yiqGrPG1lGuM/FPnoQb0vSgfiVMGpDRSfTcl3AHPSzQoU/69U37Ue9YqtXd+t1jTR25cZsptRkea+pzapNIlenjZ2m0dgFIMU6pSkA7WIOyJB+QaLYIAr1WKJ68rWPY80+K9gb32CmSL+IATvF7mpYsI7b+NB0Pf8BhQXhE6ecxpRTDiUf0I9j8QfWPlVrDU4AASQOhlKzjlyPzz8o51h9c24W/GqGHPmndCdgBosFR4ZFD7TdGQzJlY+R0AOgiOn3AbDwz8wU6Y3fKkiJYv2or3EwLdwdipSPgE8N63baXQMA5+212efZTOsFJsBg5m276NmeeXbuFz3XHUVp7hClVqkbs2alDrezojWU3YpswI0F/19v6nv0u1ph5xA4THJZcBAabkwv0KzieijzfU313yytX66YUwAA</t>
+          <t>blQAAB+LCAAAAAAAAAPtXFlz2zgS/issP2xlHmSQkm3JHoRTupxoVofLkifJvqQgEpKwpkgND9v699sAeIAUlYiOZ7c2w5RTJvrA0Wh0f2i6iH972TraE/UD5rnvz4xz/UyjruXZzF2/P4vCVcO4OvvNxMMXizp3xCdbGoKwBlpucPMSsPdnmzDc3SD0/Px8/tw69/w1auq6gT5PxnNrQ7ekwdwgJK5Fz1It+/taZybu29sJDYlNQiI135+N5qPzPmXWAGgT4pI19c97UcBcGgRDN2QhowHX9CkJaX8w+UMuzGyeX50bGB3QM8lexBxbyuUkJT2Wg2Hpgm2p2dSbekNvN4zWQr++gR8DtDoX/0oUU0E8JkE4p/4TswRhHpLtTqjrbaOlX+vXBoxWKgR9ZQYw8cyx7+kTC6jdp44TVLIIijewa4Ww6mrG1DFSdOOOXj+FDz7ZbRYsdGhV9VvPpxYY6lVjT+nzzI/tt9iNgbvYMD/cD8i+cl8PAfVnO26NaqomHnhu2HWoHz7sYFOpDXsODDP0I4rREWamNGCBBc/MjahtrogTqEo5Jv7k+Y/Bjlh0CgcW8T6eXccjNnhWyIKQWdmgBwx853s76BEG73mOfQu9xsIljLTnkQsm5sP2PO8xm10ZEwsfEN4Ae7olYSJ+QMfzjfc8c539PFoGls+W1B70EulSHuYnL9buR0HobWEWGQlLmkKZTNAe/sFhK3LwgFpsS5w7B+wYmC3oKEfA3Sj0Vizse060dYNkWgUq/gSLWtCXdJFpG89gf11ud88duYm8tHQpK69w7z2nYx4yhB0Ucjewkh0/ZBSFB0BLdvCQIzaFr/KWOZAL1O1QqHnHmG8oDUu9QnIwD3u3PLuYvT0fE6OMgsE5wcGBavIc0RA/C12/ET8wcsrGQ9eO5Qy9YTQbLVUuYeJptJ0t4RA/iTWZBvAKJAyrcHoOcR+B+omFm2k3mX0JB8s1H5U/5GE4rjuH7AU5tYtKwyPXciKbyigwclfCKfnc5DYeZeMD0hgOtomJu1/sdxB1A3YTwsP7M8jDN0HoQ6Y/My0vckN/z8MFRrHo93SCaOmKAYhzss7Kp39GADD2t5Fr9T379NFsaZ0Hl4Wnz9CLfBkDT1cR1uPhMAoGlAcWEelP1reqrCnwK4lvXbr1XGadbm0wMp+9/YqFBMmpOlmDyvN1srwDyVzmOn7WT1bzAR1Cdqs0TDcIPIsJZ42Ph63ooyNHZkBXJHIAmYWQV9dptC2ScTd4LMqoJPzgO0nMMznuDQD4Wvb23ALEwMHdueVtOQEB3vw0x0iV57DHokN3PSbuOgJgkcaVIj2NuDwpLnziBnw5KY4oBN9yIZzEKYlvTBm8ZpFwBBm8POBiVJDDC7rdeT5xJmAYdhu7XQySAH9MSLiJW5DNHGolRkaZaqqVn1ky8e+JibQkl8EPfBwmC0QhxNciIXYmk9EwX+UEjqXTJw5b+jKqJsm7jAcbliHCJP7yxVVEh8kewDUL8u0/6Z5j76wR04XLGglDOjAPpOb8/qLT7ly0moBleBuLFb8b9H8B3GZHwmg32phB/F0xamtTCHFgT+0DCW60yaS3eIA0KIwUJ6JX6Kua+DaJ9WI6E3DZHCHPB5CxZpBJDuRSRiZvTgB6bpy9IilXO/YsEHwHJ8/baffMYYGc+yMEBj5PreuQrdYnzM+tWKrhBVk6VExt0et0OtdtcLqUhLmlkQDH3BaCNhpMBShOCTi+xIlGfzjq391PRHRJiYm+TDCI3w/3XpQ153I9YiSxwSjxCyli9pNoFbdzXCVhmeqFIK+jSh1TlyZRDHm0i9h4OYx2dSJGa3KMppditHEuOcQXbuj0WhEuyOB7mRlSk43gQn95YTRbut5Mg7yd+neZUJEV97Qga1TQk6S+xE2xO/CTl7UTpjgNI9f24LwzksrIQ6I0pCXLBWMrx5QSIZipADt8ZJQ0xBADBvfmEEJnSLUP1KX8zHorbcYcjbg2PxZgm0xcUZWDcv1Hoa/9Dile6E+YuyePmk1ccax60ZapncSzTU+n6nGHZzfnj2VU2d03FYsjfvC9aHcQdzJqiWRpBDrkFjSFzQ6nlvFK5OVkexHkUOKWKcWrGWSQ15xMNYhXWrhJfVSQcZEpqYqI7Ov3KCRC5p4to1wX8VhpxQCcHo6W2kzPAMTCOCsVKPjTXFj1Uf+qZKGYyK9bdx5zw8DsXIibVtzCoGrw3sRvPNpCYhQdC7sBvUDBH0kwfAnjU25C7M0TYJ47Am7qZXfSlCCDe2ZbaFJHGw3O73s93bi40Y7kCS2XTOKEUMwZYnbi6aDHb2VN7Z0ao9XO+VKEZjZSMj9tCCd4zU9bUULVMYXUXplDTiGVlcChD9mu004l4nzn7ZiV9T4XMSAdvcDNpJOR5yLmKIKxjMyvd52r65YRc+V4HBwtSUBLIiEsg25ZtNUSGVGXKEjnOjhZN1OTIXw6mE2H81E3k5Kzm/kQ+LhPygc8ChIcmviaQgEu4EMLzndID8UOWTh5UgIaiqsyq67Na/GmXlb5yEngfuT7EjW5cUF/Hu0AM6eFl+MCoqap4OSpxLQqcs7ao0GeD22FC3kxz+YEwRehKWbJMDUKeAVIwt4pt03WBF6uDgr2iIv2EoQ9MdgHxCPP0Pc9vzT8ZJxEbAKIG2IKykyeyiA+pETndrZZCSEJeTVKr1F6jdJrlF6j9Bqll6B0jrA3dhlETzj/BXxuHMfnxtcr+8LSm/ZlY7VcXjQu2nqzcd1uXTXsjrWydGvVIs32/wC6JxtX8j7j6BxOzlyvcoFvuWX5peutg+sbJfhvR9lTot/373/oG/tX38rqW9lfeisz0ltZAuoD+cah8B4C4pRtPkxHi6+T7nR09zDuLkYzfu3gYEPJblLkYbwY3Y1Hw/t3HyPX9qn9qybvTaFGHEfb8hcdO4fBneQX/kpISY7Zn0nJaaTt+AoAcWBNw0naQXIT+IM4ETU/Aj6RTwLMmv3ZdL7oThewLfJlVaHLshHIbueI5HFskMX9w7DaMEhdlQS9xfuMQk13IguaXZ+FG+iAWbMdlW9OANIcyqWq/N6YKWllWuJqWbyax7HJkwr0tTc1JC8rKBeHUSHrFNtJGFTpSLn1IOX+gspuKyh3O0E/fBNBR+8OxznJTLOEVVp8KMlnpXLHLgulwt+/LBQRvqCcjv9RLuWhQ2ifkdBRtI4O8Dcqx8RHyAcqqfuXEsu8KsUtpcRkAAVHIglb0CH4RG9T/UUqVNN/CC2eDhmQQkCHCTpPQrkMi4rZVCUgJTGikjRYoKF8xkJxVEJ1ofDNC4XoNaVB9HYVQCWxDNhq9QWQ7ufsL7gSgpxx1gtvyJx6AEqQgloU34j/zOttneU12Kasm7+Xy71Jbfr0q3ddtq7L1nXZui5b12Xrumz9NypbN4+XrZtfrXbretnqkMZyuSKNi8tWq7FsGxY8rWyD2NeXxtVVXbauy9Z12bouW/+flK2bddm6LlvXZeu6bF2XreuydV22/slriD9d2foYUun2+/Ph/SE8AfrDhIOX4bvjyAPVSbpO0nWSrpN0naTrJF0n6Z/83bL2j3X4q5YHBvXb5jd523x6xfwvedscP8jPaCS+PaAOgLyqX9tKtCfe06t1wS+qqo6CmWPHdq72HYfULFkH6rfPuA9VnUzX9wF08C8lVf5Y2Zi5j6NqqzeNpd2C/1S3jXazSUjr6toAV9JXxNZbS/Aa2Sm/A/AutgAN+UcxKg7CQ5aqnn3A5J6464q9SQMLRf6RD7CUfD0JSvwDH0kb3zI/CD9zXBA/ScqXlPJFYsnP/Htf8kG0v5idS0kAAaQOhnKzTmJPKD+T5zljtmUVPwSiJ/Ep3wm4wW4noWHVDe0PJlP6EmKk9AAwYvlvQCzyyzlVepOnCu5EqX7S1zxaVu4OJcp3wOeO9TrtoQ2I8/Xa4qNzzPmBCQic+douRm7A1puw6r627VVLt5e00bHancaF3Ww1iLXUG5etiyu7Ra22rbf5p8LiziFxMPpccRCeblgQEae6Hip8NdT8D3+ZZQRuVAAA</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,44 +442,44 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -465,133 +489,133 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>BTU hd</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>BTU hd</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="D8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -601,7 +625,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -619,371 +643,1071 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="D12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="D12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="D13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="D13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="D14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>12319270</v>
+        <v>933746398035</v>
       </c>
       <c r="D17" s="2">
-        <v>69606200</v>
+        <v>28184509282245</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>19624271575666.67</v>
+        <v>6.758867972409233e+21</v>
       </c>
       <c r="D18" s="2">
-        <v>1515053868086667</v>
+        <v>2.52121412149191e+26</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>4429929.071177852</v>
+        <v>82212334673.1452</v>
       </c>
       <c r="D19" s="2">
-        <v>38923692.88860792</v>
+        <v>15878331529137.15</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892376</v>
+        <v>0.5786993566761698</v>
       </c>
       <c r="D20" s="2">
-        <v>0.4851731339800693</v>
+        <v>0.01061074718476255</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045296</v>
+        <v>-0.290975592460077</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.9486460219199939</v>
+        <v>-1.130272718930765</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654156</v>
       </c>
       <c r="D22" s="2">
-        <v>0.5591986473706066</v>
+        <v>0.5633708705065092</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>7276300</v>
+        <v>804654490100</v>
       </c>
       <c r="D23" s="2">
-        <v>21444700</v>
+        <v>1025846417000</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>20268300</v>
+        <v>1124824195100</v>
       </c>
       <c r="D24" s="2">
-        <v>136727200</v>
+        <v>56024783882100</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>11811450</v>
+        <v>925554974450</v>
       </c>
       <c r="D25" s="2">
-        <v>63071300</v>
+        <v>28309544986650</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>7910200</v>
-      </c>
-      <c r="D27" s="8">
-        <v>21444700</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1025846417000</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1025846417000</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>7677300</v>
-      </c>
-      <c r="D28" s="8">
-        <v>29122000</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>934675494400</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1960521911400</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>7276300</v>
-      </c>
-      <c r="D29" s="8">
-        <v>36398300</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>986070121200</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2946592032600</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>9229100</v>
-      </c>
-      <c r="D30" s="8">
-        <v>45627400</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>973956436700</v>
+      </c>
+      <c r="D30" s="11">
+        <v>3920548469300</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>11264900</v>
-      </c>
-      <c r="D31" s="8">
-        <v>56892300</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>920751243700</v>
+      </c>
+      <c r="D31" s="11">
+        <v>4841299713000</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>952322381900</v>
+      </c>
+      <c r="D32" s="11">
+        <v>5793622094900</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1000477073000</v>
+      </c>
+      <c r="D33" s="11">
+        <v>6794099167900</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>953072401100</v>
+      </c>
+      <c r="D34" s="11">
+        <v>7747171569000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>899178379800</v>
+      </c>
+      <c r="D35" s="11">
+        <v>8646349948800</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>983958323200</v>
+      </c>
+      <c r="D36" s="11">
+        <v>9630308272000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>981701342800</v>
+      </c>
+      <c r="D37" s="11">
+        <v>10612009614800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>12358000</v>
-      </c>
-      <c r="D32" s="8">
-        <v>69250300</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>985689482600</v>
+      </c>
+      <c r="D38" s="11">
+        <v>11597699097400</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>955242498000</v>
+      </c>
+      <c r="D39" s="11">
+        <v>12552941595400</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>836170226800</v>
+      </c>
+      <c r="D40" s="11">
+        <v>13389111822200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>986070121200</v>
+      </c>
+      <c r="D41" s="11">
+        <v>14375181943400</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>873135929200</v>
+      </c>
+      <c r="D42" s="11">
+        <v>15248317872600</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>890921227800</v>
+      </c>
+      <c r="D43" s="11">
+        <v>16139239100400</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>835804962000</v>
+      </c>
+      <c r="D44" s="11">
+        <v>16975044062400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>890628271900</v>
+      </c>
+      <c r="D45" s="11">
+        <v>17865672334300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>931599971000</v>
+      </c>
+      <c r="D46" s="11">
+        <v>18797272305300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>865890822400</v>
+      </c>
+      <c r="D47" s="11">
+        <v>19663163127700</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>930358705200</v>
+      </c>
+      <c r="D48" s="11">
+        <v>20593521832900</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>913561508400</v>
+      </c>
+      <c r="D49" s="11">
+        <v>21507083341300</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>14827100</v>
-      </c>
-      <c r="D33" s="8">
-        <v>84077400</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>956887379700</v>
+      </c>
+      <c r="D50" s="11">
+        <v>22463970721000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>963289469000</v>
+      </c>
+      <c r="D51" s="11">
+        <v>23427260190000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>989537530300</v>
+      </c>
+      <c r="D52" s="11">
+        <v>24416797720300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>900977722200</v>
+      </c>
+      <c r="D53" s="11">
+        <v>25317775442500</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>821558079400</v>
+      </c>
+      <c r="D54" s="11">
+        <v>26139333521900</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>906122142800</v>
+      </c>
+      <c r="D55" s="11">
+        <v>27045455664700</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>834686995600</v>
+      </c>
+      <c r="D56" s="11">
+        <v>27880142660300</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>858804652700</v>
+      </c>
+      <c r="D57" s="11">
+        <v>28738947313000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>880719520600</v>
+      </c>
+      <c r="D58" s="11">
+        <v>29619666833600</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>864116581000</v>
+      </c>
+      <c r="D59" s="11">
+        <v>30483783414600</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>858634635700</v>
+      </c>
+      <c r="D60" s="11">
+        <v>31342418050300</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>879111560200</v>
+      </c>
+      <c r="D61" s="11">
+        <v>32221529610500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>15986100</v>
-      </c>
-      <c r="D34" s="8">
-        <v>100063500</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>917899082200</v>
+      </c>
+      <c r="D62" s="11">
+        <v>33139428692700</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>920303717800</v>
+      </c>
+      <c r="D63" s="11">
+        <v>34059732410500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>804654490100</v>
+      </c>
+      <c r="D64" s="11">
+        <v>34864386900600</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>815585178800</v>
+      </c>
+      <c r="D65" s="11">
+        <v>35679972079400</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>816574611900</v>
+      </c>
+      <c r="D66" s="11">
+        <v>36496546691300</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>833087852900</v>
+      </c>
+      <c r="D67" s="11">
+        <v>37329634544200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>848394901900</v>
+      </c>
+      <c r="D68" s="11">
+        <v>38178029446100</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>904136671200</v>
+      </c>
+      <c r="D69" s="11">
+        <v>39082166117300</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>859455674300</v>
+      </c>
+      <c r="D70" s="11">
+        <v>39941621791600</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>846724391300</v>
+      </c>
+      <c r="D71" s="11">
+        <v>40788346182900</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>853705440100</v>
+      </c>
+      <c r="D72" s="11">
+        <v>41642051623000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>865784388000</v>
+      </c>
+      <c r="D73" s="11">
+        <v>42507836011000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>16395400</v>
-      </c>
-      <c r="D35" s="8">
-        <v>116458900</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>971566566700</v>
+      </c>
+      <c r="D74" s="11">
+        <v>43479402577700</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>972891083800</v>
+      </c>
+      <c r="D75" s="11">
+        <v>44452293661500</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>946714368000</v>
+      </c>
+      <c r="D76" s="11">
+        <v>45399008029500</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1104032431400</v>
+      </c>
+      <c r="D77" s="11">
+        <v>46503040460900</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>996406686500</v>
+      </c>
+      <c r="D78" s="11">
+        <v>47499447147400</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1100558161000</v>
+      </c>
+      <c r="D79" s="11">
+        <v>48600005308400</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>949300296800</v>
+      </c>
+      <c r="D80" s="11">
+        <v>49549305605200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1110791593300</v>
+      </c>
+      <c r="D81" s="11">
+        <v>50660097198500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1124824195100</v>
+      </c>
+      <c r="D82" s="11">
+        <v>51784921393600</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1055031781100</v>
+      </c>
+      <c r="D83" s="11">
+        <v>52839953174700</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1077650252900</v>
+      </c>
+      <c r="D84" s="11">
+        <v>53917603427600</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1013640360700</v>
+      </c>
+      <c r="D85" s="11">
+        <v>54931243788300</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>20268300</v>
-      </c>
-      <c r="D36" s="8">
-        <v>136727200</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1093540093800</v>
+      </c>
+      <c r="D86" s="11">
+        <v>56024783882100</v>
       </c>
     </row>
   </sheetData>
@@ -1003,34 +1727,34 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>4</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>4</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>2</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -1040,7 +1764,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F532CE9-F200-4023-B0AA-C3AF78A232EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D583B1-D84C-4433-8455-E04F72DCA3F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
